--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a33621fa97eb8fec/Desktop/GALEYA/FYP/APP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a33621fa97eb8fec/Desktop/GALEYA/FYP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_A8EE0622A8FA88F3442683AEE186185B4149CF20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F7FEC1B-F08F-48E5-9179-761A55AF7D30}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{2CEEDC2F-3DA1-4D3F-9742-BF1F4CD97E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="0" windowWidth="14400" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="jVlvYw0C3z+PLdGu6c0VW2w7gFttuo87x1P0cqiE+4A="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="606">
   <si>
     <t>ingredients</t>
   </si>
@@ -1723,6 +1728,9 @@
     <t>Seco Herrerano</t>
   </si>
   <si>
+    <t>Soju</t>
+  </si>
+  <si>
     <t>Shandy</t>
   </si>
   <si>
@@ -1739,9 +1747,6 @@
   </si>
   <si>
     <t>Šlijovica</t>
-  </si>
-  <si>
-    <t>Soju</t>
   </si>
   <si>
     <t>Sonti</t>
@@ -2041,30 +2046,18 @@
       <left style="thin">
         <color rgb="FF284E3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
+      <left/>
       <right style="thin">
         <color rgb="FF284E3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2079,10 +2072,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2108,6 +2109,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2118,12 +2125,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2402,16 +2403,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L996"/>
+  <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.6328125" customWidth="1"/>
+    <col min="2" max="6" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2422,15 +2424,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -2438,7 +2440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2446,7 +2448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -2454,7 +2456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -2462,7 +2464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -2470,7 +2472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -2478,7 +2480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -2486,7 +2488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -2496,7 +2498,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -2506,7 +2508,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -2516,7 +2518,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -2524,7 +2526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -2532,7 +2534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -2540,7 +2542,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -2548,7 +2550,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
@@ -2556,7 +2558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2564,7 +2566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
@@ -2572,7 +2574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -2580,7 +2582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
@@ -2588,7 +2590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2596,7 +2598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>26</v>
       </c>
@@ -2604,7 +2606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
@@ -2612,7 +2614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>28</v>
       </c>
@@ -2620,7 +2622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
@@ -2628,7 +2630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>30</v>
       </c>
@@ -2636,7 +2638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>31</v>
       </c>
@@ -2644,7 +2646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>32</v>
       </c>
@@ -2652,7 +2654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>33</v>
       </c>
@@ -2660,7 +2662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>34</v>
       </c>
@@ -2668,15 +2670,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>36</v>
       </c>
@@ -2684,7 +2686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
@@ -2692,7 +2694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>38</v>
       </c>
@@ -2700,7 +2702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>39</v>
       </c>
@@ -2708,7 +2710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>40</v>
       </c>
@@ -2716,7 +2718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>41</v>
       </c>
@@ -2724,7 +2726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>42</v>
       </c>
@@ -2732,7 +2734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>43</v>
       </c>
@@ -2740,7 +2742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>44</v>
       </c>
@@ -2748,7 +2750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>45</v>
       </c>
@@ -2756,7 +2758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>46</v>
       </c>
@@ -2764,7 +2766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>47</v>
       </c>
@@ -2772,7 +2774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>48</v>
       </c>
@@ -2780,7 +2782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>49</v>
       </c>
@@ -2788,7 +2790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>50</v>
       </c>
@@ -2796,7 +2798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>51</v>
       </c>
@@ -2804,7 +2806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>52</v>
       </c>
@@ -2812,7 +2814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>53</v>
       </c>
@@ -2820,7 +2822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>54</v>
       </c>
@@ -2828,7 +2830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>55</v>
       </c>
@@ -2836,7 +2838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>56</v>
       </c>
@@ -2844,7 +2846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>57</v>
       </c>
@@ -2852,7 +2854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>58</v>
       </c>
@@ -2860,7 +2862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>59</v>
       </c>
@@ -2868,7 +2870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>60</v>
       </c>
@@ -2876,7 +2878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>61</v>
       </c>
@@ -2884,7 +2886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>62</v>
       </c>
@@ -2892,7 +2894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>63</v>
       </c>
@@ -2900,7 +2902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>64</v>
       </c>
@@ -2908,7 +2910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>65</v>
       </c>
@@ -2916,7 +2918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>66</v>
       </c>
@@ -2924,7 +2926,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>67</v>
       </c>
@@ -2932,7 +2934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>68</v>
       </c>
@@ -2940,7 +2942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>69</v>
       </c>
@@ -2948,7 +2950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>70</v>
       </c>
@@ -2956,7 +2958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>71</v>
       </c>
@@ -2964,7 +2966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>72</v>
       </c>
@@ -2972,7 +2974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>73</v>
       </c>
@@ -2980,7 +2982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>74</v>
       </c>
@@ -2988,7 +2990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>75</v>
       </c>
@@ -2996,7 +2998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>76</v>
       </c>
@@ -3004,7 +3006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>77</v>
       </c>
@@ -3012,7 +3014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>78</v>
       </c>
@@ -3020,7 +3022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>79</v>
       </c>
@@ -3028,7 +3030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>80</v>
       </c>
@@ -3036,7 +3038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>81</v>
       </c>
@@ -3044,7 +3046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>82</v>
       </c>
@@ -3052,7 +3054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>83</v>
       </c>
@@ -3060,7 +3062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>84</v>
       </c>
@@ -3068,7 +3070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>85</v>
       </c>
@@ -3076,7 +3078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>86</v>
       </c>
@@ -3084,7 +3086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>87</v>
       </c>
@@ -3092,7 +3094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>88</v>
       </c>
@@ -3100,7 +3102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>89</v>
       </c>
@@ -3108,7 +3110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>90</v>
       </c>
@@ -3116,7 +3118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>91</v>
       </c>
@@ -3124,7 +3126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>92</v>
       </c>
@@ -3132,7 +3134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>93</v>
       </c>
@@ -3140,7 +3142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>94</v>
       </c>
@@ -3148,7 +3150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>95</v>
       </c>
@@ -3156,7 +3158,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>96</v>
       </c>
@@ -3164,7 +3166,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>97</v>
       </c>
@@ -3172,7 +3174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>98</v>
       </c>
@@ -3180,7 +3182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>99</v>
       </c>
@@ -3188,7 +3190,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>100</v>
       </c>
@@ -3196,7 +3198,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>101</v>
       </c>
@@ -3204,7 +3206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>102</v>
       </c>
@@ -3212,7 +3214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>103</v>
       </c>
@@ -4753,7 +4755,7 @@
         <v>295</v>
       </c>
       <c r="B292" s="12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5561,7 +5563,7 @@
         <v>396</v>
       </c>
       <c r="B393" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5569,7 +5571,7 @@
         <v>397</v>
       </c>
       <c r="B394" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5577,7 +5579,7 @@
         <v>398</v>
       </c>
       <c r="B395" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5593,7 +5595,7 @@
         <v>400</v>
       </c>
       <c r="B397" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5609,7 +5611,7 @@
         <v>402</v>
       </c>
       <c r="B399" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5617,7 +5619,7 @@
         <v>403</v>
       </c>
       <c r="B400" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5625,7 +5627,7 @@
         <v>404</v>
       </c>
       <c r="B401" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5633,7 +5635,7 @@
         <v>405</v>
       </c>
       <c r="B402" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5641,7 +5643,7 @@
         <v>406</v>
       </c>
       <c r="B403" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5649,7 +5651,7 @@
         <v>407</v>
       </c>
       <c r="B404" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5657,7 +5659,7 @@
         <v>408</v>
       </c>
       <c r="B405" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5665,7 +5667,7 @@
         <v>409</v>
       </c>
       <c r="B406" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5673,7 +5675,7 @@
         <v>410</v>
       </c>
       <c r="B407" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5681,7 +5683,7 @@
         <v>411</v>
       </c>
       <c r="B408" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5689,7 +5691,7 @@
         <v>412</v>
       </c>
       <c r="B409" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5697,7 +5699,7 @@
         <v>413</v>
       </c>
       <c r="B410" s="12" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5713,7 +5715,7 @@
         <v>415</v>
       </c>
       <c r="B412" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5721,7 +5723,7 @@
         <v>416</v>
       </c>
       <c r="B413" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5729,7 +5731,7 @@
         <v>417</v>
       </c>
       <c r="B414" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5737,7 +5739,7 @@
         <v>418</v>
       </c>
       <c r="B415" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5745,7 +5747,7 @@
         <v>419</v>
       </c>
       <c r="B416" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5753,7 +5755,7 @@
         <v>420</v>
       </c>
       <c r="B417" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5761,7 +5763,7 @@
         <v>421</v>
       </c>
       <c r="B418" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5769,7 +5771,7 @@
         <v>422</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5777,7 +5779,7 @@
         <v>423</v>
       </c>
       <c r="B420" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5785,7 +5787,7 @@
         <v>424</v>
       </c>
       <c r="B421" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5793,7 +5795,7 @@
         <v>425</v>
       </c>
       <c r="B422" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5809,7 +5811,7 @@
         <v>427</v>
       </c>
       <c r="B424" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5817,7 +5819,7 @@
         <v>428</v>
       </c>
       <c r="B425" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5825,7 +5827,7 @@
         <v>429</v>
       </c>
       <c r="B426" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5841,7 +5843,7 @@
         <v>431</v>
       </c>
       <c r="B428" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5849,7 +5851,7 @@
         <v>432</v>
       </c>
       <c r="B429" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5857,7 +5859,7 @@
         <v>433</v>
       </c>
       <c r="B430" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5873,7 +5875,7 @@
         <v>435</v>
       </c>
       <c r="B432" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5881,7 +5883,7 @@
         <v>436</v>
       </c>
       <c r="B433" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5889,7 +5891,7 @@
         <v>437</v>
       </c>
       <c r="B434" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5897,7 +5899,7 @@
         <v>438</v>
       </c>
       <c r="B435" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5905,7 +5907,7 @@
         <v>439</v>
       </c>
       <c r="B436" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5913,7 +5915,7 @@
         <v>440</v>
       </c>
       <c r="B437" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5921,7 +5923,7 @@
         <v>441</v>
       </c>
       <c r="B438" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5945,7 +5947,7 @@
         <v>444</v>
       </c>
       <c r="B441" s="10" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5953,15 +5955,15 @@
         <v>445</v>
       </c>
       <c r="B442" s="12" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="B443" s="10" t="s">
-        <v>18</v>
+      <c r="B443" s="12" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5969,15 +5971,15 @@
         <v>447</v>
       </c>
       <c r="B444" s="12" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="B445" s="10" t="s">
-        <v>18</v>
+      <c r="B445" s="12" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5985,14 +5987,14 @@
         <v>449</v>
       </c>
       <c r="B446" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="B447" s="10" t="s">
+      <c r="B447" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6001,7 +6003,7 @@
         <v>451</v>
       </c>
       <c r="B448" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6033,7 +6035,7 @@
         <v>455</v>
       </c>
       <c r="B452" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6041,7 +6043,7 @@
         <v>456</v>
       </c>
       <c r="B453" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6057,7 +6059,7 @@
         <v>458</v>
       </c>
       <c r="B455" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6073,7 +6075,7 @@
         <v>460</v>
       </c>
       <c r="B457" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6081,7 +6083,7 @@
         <v>461</v>
       </c>
       <c r="B458" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6089,7 +6091,7 @@
         <v>462</v>
       </c>
       <c r="B459" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6097,7 +6099,7 @@
         <v>463</v>
       </c>
       <c r="B460" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6113,7 +6115,7 @@
         <v>465</v>
       </c>
       <c r="B462" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6121,7 +6123,7 @@
         <v>466</v>
       </c>
       <c r="B463" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6129,7 +6131,7 @@
         <v>467</v>
       </c>
       <c r="B464" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6137,7 +6139,7 @@
         <v>468</v>
       </c>
       <c r="B465" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6145,7 +6147,7 @@
         <v>469</v>
       </c>
       <c r="B466" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6153,7 +6155,7 @@
         <v>470</v>
       </c>
       <c r="B467" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6161,7 +6163,7 @@
         <v>471</v>
       </c>
       <c r="B468" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6169,7 +6171,7 @@
         <v>472</v>
       </c>
       <c r="B469" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6177,7 +6179,7 @@
         <v>473</v>
       </c>
       <c r="B470" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6185,7 +6187,7 @@
         <v>474</v>
       </c>
       <c r="B471" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6217,7 +6219,7 @@
         <v>478</v>
       </c>
       <c r="B475" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6225,7 +6227,7 @@
         <v>479</v>
       </c>
       <c r="B476" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6233,7 +6235,7 @@
         <v>480</v>
       </c>
       <c r="B477" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6241,7 +6243,7 @@
         <v>481</v>
       </c>
       <c r="B478" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6249,7 +6251,7 @@
         <v>482</v>
       </c>
       <c r="B479" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6257,7 +6259,7 @@
         <v>483</v>
       </c>
       <c r="B480" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6273,7 +6275,7 @@
         <v>485</v>
       </c>
       <c r="B482" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6289,7 +6291,7 @@
         <v>487</v>
       </c>
       <c r="B484" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6297,7 +6299,7 @@
         <v>488</v>
       </c>
       <c r="B485" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6305,7 +6307,7 @@
         <v>489</v>
       </c>
       <c r="B486" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6313,7 +6315,7 @@
         <v>490</v>
       </c>
       <c r="B487" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6321,7 +6323,7 @@
         <v>491</v>
       </c>
       <c r="B488" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6329,7 +6331,7 @@
         <v>492</v>
       </c>
       <c r="B489" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6337,7 +6339,7 @@
         <v>493</v>
       </c>
       <c r="B490" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6345,7 +6347,7 @@
         <v>494</v>
       </c>
       <c r="B491" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6353,7 +6355,7 @@
         <v>495</v>
       </c>
       <c r="B492" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6361,7 +6363,7 @@
         <v>496</v>
       </c>
       <c r="B493" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6369,7 +6371,7 @@
         <v>497</v>
       </c>
       <c r="B494" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6377,7 +6379,7 @@
         <v>498</v>
       </c>
       <c r="B495" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6385,7 +6387,7 @@
         <v>499</v>
       </c>
       <c r="B496" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="497" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6393,7 +6395,7 @@
         <v>500</v>
       </c>
       <c r="B497" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="498" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6401,7 +6403,7 @@
         <v>501</v>
       </c>
       <c r="B498" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="499" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6409,7 +6411,7 @@
         <v>502</v>
       </c>
       <c r="B499" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="500" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6433,7 +6435,7 @@
         <v>505</v>
       </c>
       <c r="B502" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6457,7 +6459,7 @@
         <v>508</v>
       </c>
       <c r="B505" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6465,7 +6467,7 @@
         <v>509</v>
       </c>
       <c r="B506" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6473,7 +6475,7 @@
         <v>510</v>
       </c>
       <c r="B507" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="508" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6481,7 +6483,7 @@
         <v>511</v>
       </c>
       <c r="B508" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="509" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6489,7 +6491,7 @@
         <v>512</v>
       </c>
       <c r="B509" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="510" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6497,7 +6499,7 @@
         <v>513</v>
       </c>
       <c r="B510" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="511" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6505,7 +6507,7 @@
         <v>514</v>
       </c>
       <c r="B511" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="512" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6513,7 +6515,7 @@
         <v>515</v>
       </c>
       <c r="B512" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6521,7 +6523,7 @@
         <v>516</v>
       </c>
       <c r="B513" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6529,7 +6531,7 @@
         <v>517</v>
       </c>
       <c r="B514" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6537,7 +6539,7 @@
         <v>518</v>
       </c>
       <c r="B515" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6553,7 +6555,7 @@
         <v>520</v>
       </c>
       <c r="B517" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="518" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6561,7 +6563,7 @@
         <v>521</v>
       </c>
       <c r="B518" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="519" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6569,7 +6571,7 @@
         <v>522</v>
       </c>
       <c r="B519" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="520" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6577,7 +6579,7 @@
         <v>523</v>
       </c>
       <c r="B520" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="521" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6585,7 +6587,7 @@
         <v>524</v>
       </c>
       <c r="B521" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6593,7 +6595,7 @@
         <v>525</v>
       </c>
       <c r="B522" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6601,7 +6603,7 @@
         <v>526</v>
       </c>
       <c r="B523" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="524" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6609,7 +6611,7 @@
         <v>527</v>
       </c>
       <c r="B524" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="525" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6617,7 +6619,7 @@
         <v>528</v>
       </c>
       <c r="B525" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="526" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6625,7 +6627,7 @@
         <v>529</v>
       </c>
       <c r="B526" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="527" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6633,7 +6635,7 @@
         <v>530</v>
       </c>
       <c r="B527" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="528" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6649,7 +6651,7 @@
         <v>532</v>
       </c>
       <c r="B529" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="530" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6657,7 +6659,7 @@
         <v>533</v>
       </c>
       <c r="B530" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="531" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6665,7 +6667,7 @@
         <v>534</v>
       </c>
       <c r="B531" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="532" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6673,7 +6675,7 @@
         <v>535</v>
       </c>
       <c r="B532" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6681,7 +6683,7 @@
         <v>536</v>
       </c>
       <c r="B533" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6689,7 +6691,7 @@
         <v>537</v>
       </c>
       <c r="B534" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="535" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6697,7 +6699,7 @@
         <v>538</v>
       </c>
       <c r="B535" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="536" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6705,7 +6707,7 @@
         <v>539</v>
       </c>
       <c r="B536" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6713,7 +6715,7 @@
         <v>540</v>
       </c>
       <c r="B537" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6721,7 +6723,7 @@
         <v>541</v>
       </c>
       <c r="B538" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="539" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6737,7 +6739,7 @@
         <v>543</v>
       </c>
       <c r="B540" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="541" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6745,7 +6747,7 @@
         <v>544</v>
       </c>
       <c r="B541" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="542" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6753,7 +6755,7 @@
         <v>545</v>
       </c>
       <c r="B542" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6761,7 +6763,7 @@
         <v>546</v>
       </c>
       <c r="B543" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6769,7 +6771,7 @@
         <v>547</v>
       </c>
       <c r="B544" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="545" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6777,7 +6779,7 @@
         <v>548</v>
       </c>
       <c r="B545" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="546" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6785,7 +6787,7 @@
         <v>549</v>
       </c>
       <c r="B546" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="547" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6793,7 +6795,7 @@
         <v>550</v>
       </c>
       <c r="B547" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="548" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6801,7 +6803,7 @@
         <v>551</v>
       </c>
       <c r="B548" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6809,7 +6811,7 @@
         <v>552</v>
       </c>
       <c r="B549" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6817,7 +6819,7 @@
         <v>553</v>
       </c>
       <c r="B550" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6825,7 +6827,7 @@
         <v>554</v>
       </c>
       <c r="B551" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6833,7 +6835,7 @@
         <v>555</v>
       </c>
       <c r="B552" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="553" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6865,7 +6867,7 @@
         <v>559</v>
       </c>
       <c r="B556" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6873,7 +6875,7 @@
         <v>560</v>
       </c>
       <c r="B557" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="558" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6881,7 +6883,7 @@
         <v>561</v>
       </c>
       <c r="B558" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="559" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6889,7 +6891,7 @@
         <v>562</v>
       </c>
       <c r="B559" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6897,7 +6899,7 @@
         <v>563</v>
       </c>
       <c r="B560" s="12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6921,1899 +6923,1329 @@
         <v>566</v>
       </c>
       <c r="B563" s="10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A564" s="11" t="s">
+      <c r="A564" s="16" t="s">
         <v>567</v>
       </c>
-      <c r="B564" s="12" t="s">
-        <v>3</v>
+      <c r="B564" s="17" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A565" s="9" t="s">
+      <c r="A565" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="B565" s="10" t="s">
-        <v>3</v>
+      <c r="B565" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="566" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A566" s="11" t="s">
+      <c r="A566" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="B566" s="12" t="s">
-        <v>3</v>
+      <c r="B566" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="567" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A567" s="9" t="s">
+      <c r="A567" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="B567" s="10" t="s">
-        <v>3</v>
+      <c r="B567" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="568" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A568" s="11" t="s">
+      <c r="A568" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="B568" s="12" t="s">
+      <c r="B568" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="569" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A569" s="9" t="s">
+      <c r="A569" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="B569" s="10" t="s">
-        <v>3</v>
+      <c r="B569" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="570" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A570" s="11" t="s">
+      <c r="A570" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="B570" s="12" t="s">
+      <c r="B570" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="571" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A571" s="9" t="s">
+      <c r="A571" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="B571" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A572" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="B571" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A572" s="11" t="s">
+      <c r="B572" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A573" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="B572" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A573" s="9" t="s">
+      <c r="B573" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A574" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="B573" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A574" s="11" t="s">
+      <c r="B574" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A575" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="B574" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A575" s="9" t="s">
+      <c r="B575" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A576" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="B575" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A576" s="11" t="s">
+      <c r="B576" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A577" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="B576" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A577" s="9" t="s">
+      <c r="B577" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A578" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="B577" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A578" s="11" t="s">
+      <c r="B578" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A579" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="B578" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A579" s="9" t="s">
+      <c r="B579" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A580" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="B579" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A580" s="11" t="s">
+      <c r="B580" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A581" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="B580" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A581" s="9" t="s">
+      <c r="B581" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A582" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="B581" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A582" s="11" t="s">
+      <c r="B582" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A583" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="B582" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A583" s="9" t="s">
+      <c r="B583" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A584" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="B583" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A584" s="11" t="s">
+      <c r="B584" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A585" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="B584" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="585" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A585" s="9" t="s">
+      <c r="B585" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A586" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="B585" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="586" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A586" s="11" t="s">
+      <c r="B586" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A587" s="11" t="s">
         <v>589</v>
       </c>
-      <c r="B586" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="587" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A587" s="9" t="s">
+      <c r="B587" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A588" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="B587" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="588" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A588" s="11" t="s">
+      <c r="B588" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A589" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="B588" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="589" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A589" s="9" t="s">
+      <c r="B589" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A590" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="B589" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="590" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A590" s="11" t="s">
+      <c r="B590" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A591" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="B590" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="591" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A591" s="9" t="s">
+      <c r="B591" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A592" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="B591" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="592" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A592" s="11" t="s">
+      <c r="B592" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A593" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="B592" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="593" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A593" s="9" t="s">
+      <c r="B593" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A594" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="B593" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="594" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A594" s="11" t="s">
+      <c r="B594" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A595" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="B594" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A595" s="9" t="s">
+      <c r="B595" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A596" s="9" t="s">
         <v>598</v>
       </c>
-      <c r="B595" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A596" s="11" t="s">
+      <c r="B596" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A597" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="B596" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="597" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A597" s="9" t="s">
+      <c r="B597" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A598" s="9" t="s">
         <v>600</v>
       </c>
-      <c r="B597" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="598" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A598" s="11" t="s">
+      <c r="B598" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A599" s="11" t="s">
         <v>601</v>
       </c>
-      <c r="B598" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A599" s="9" t="s">
+      <c r="B599" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A600" s="9" t="s">
         <v>602</v>
       </c>
-      <c r="B599" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="600" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A600" s="11" t="s">
+      <c r="B600" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A601" s="11" t="s">
         <v>603</v>
       </c>
-      <c r="B600" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A601" s="9" t="s">
+      <c r="B601" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A602" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="B601" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="602" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A602" s="11" t="s">
+      <c r="B602" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A603" s="11" t="s">
         <v>605</v>
       </c>
-      <c r="B602" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="603" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A603" s="16"/>
-      <c r="B603" s="17"/>
+      <c r="B603" s="12" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="604" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="18"/>
       <c r="B604" s="19"/>
     </row>
     <row r="605" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A605" s="16"/>
-      <c r="B605" s="17"/>
+      <c r="A605" s="20"/>
+      <c r="B605" s="21"/>
     </row>
     <row r="606" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="18"/>
       <c r="B606" s="19"/>
     </row>
     <row r="607" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A607" s="16"/>
-      <c r="B607" s="17"/>
+      <c r="A607" s="20"/>
+      <c r="B607" s="21"/>
     </row>
     <row r="608" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="18"/>
       <c r="B608" s="19"/>
     </row>
     <row r="609" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A609" s="16"/>
-      <c r="B609" s="17"/>
+      <c r="A609" s="20"/>
+      <c r="B609" s="21"/>
     </row>
     <row r="610" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="18"/>
       <c r="B610" s="19"/>
     </row>
     <row r="611" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A611" s="16"/>
-      <c r="B611" s="17"/>
+      <c r="A611" s="20"/>
+      <c r="B611" s="21"/>
     </row>
     <row r="612" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="18"/>
       <c r="B612" s="19"/>
     </row>
     <row r="613" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A613" s="16"/>
-      <c r="B613" s="17"/>
+      <c r="A613" s="20"/>
+      <c r="B613" s="21"/>
     </row>
     <row r="614" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="18"/>
       <c r="B614" s="19"/>
     </row>
     <row r="615" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A615" s="16"/>
-      <c r="B615" s="17"/>
+      <c r="A615" s="20"/>
+      <c r="B615" s="21"/>
     </row>
     <row r="616" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="18"/>
       <c r="B616" s="19"/>
     </row>
     <row r="617" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A617" s="16"/>
-      <c r="B617" s="17"/>
+      <c r="A617" s="20"/>
+      <c r="B617" s="21"/>
     </row>
     <row r="618" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="18"/>
       <c r="B618" s="19"/>
     </row>
     <row r="619" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A619" s="16"/>
-      <c r="B619" s="17"/>
+      <c r="A619" s="20"/>
+      <c r="B619" s="21"/>
     </row>
     <row r="620" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="18"/>
       <c r="B620" s="19"/>
     </row>
     <row r="621" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A621" s="16"/>
-      <c r="B621" s="17"/>
+      <c r="A621" s="20"/>
+      <c r="B621" s="21"/>
     </row>
     <row r="622" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="18"/>
       <c r="B622" s="19"/>
     </row>
     <row r="623" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A623" s="16"/>
-      <c r="B623" s="17"/>
+      <c r="A623" s="20"/>
+      <c r="B623" s="21"/>
     </row>
     <row r="624" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="18"/>
       <c r="B624" s="19"/>
     </row>
     <row r="625" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A625" s="16"/>
-      <c r="B625" s="17"/>
+      <c r="A625" s="20"/>
+      <c r="B625" s="21"/>
     </row>
     <row r="626" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="18"/>
       <c r="B626" s="19"/>
     </row>
     <row r="627" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A627" s="16"/>
-      <c r="B627" s="17"/>
+      <c r="A627" s="20"/>
+      <c r="B627" s="21"/>
     </row>
     <row r="628" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="18"/>
       <c r="B628" s="19"/>
     </row>
     <row r="629" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A629" s="16"/>
-      <c r="B629" s="17"/>
+      <c r="A629" s="20"/>
+      <c r="B629" s="21"/>
     </row>
     <row r="630" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="18"/>
       <c r="B630" s="19"/>
     </row>
     <row r="631" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A631" s="16"/>
-      <c r="B631" s="17"/>
+      <c r="A631" s="20"/>
+      <c r="B631" s="21"/>
     </row>
     <row r="632" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="18"/>
       <c r="B632" s="19"/>
     </row>
     <row r="633" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A633" s="16"/>
-      <c r="B633" s="17"/>
+      <c r="A633" s="20"/>
+      <c r="B633" s="21"/>
     </row>
     <row r="634" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="18"/>
       <c r="B634" s="19"/>
     </row>
     <row r="635" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A635" s="16"/>
-      <c r="B635" s="17"/>
+      <c r="A635" s="20"/>
+      <c r="B635" s="21"/>
     </row>
     <row r="636" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="18"/>
       <c r="B636" s="19"/>
     </row>
     <row r="637" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A637" s="16"/>
-      <c r="B637" s="17"/>
+      <c r="A637" s="20"/>
+      <c r="B637" s="21"/>
     </row>
     <row r="638" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="18"/>
       <c r="B638" s="19"/>
     </row>
     <row r="639" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A639" s="16"/>
-      <c r="B639" s="17"/>
+      <c r="A639" s="20"/>
+      <c r="B639" s="21"/>
     </row>
     <row r="640" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="18"/>
       <c r="B640" s="19"/>
     </row>
     <row r="641" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A641" s="16"/>
-      <c r="B641" s="17"/>
+      <c r="A641" s="20"/>
+      <c r="B641" s="21"/>
     </row>
     <row r="642" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="18"/>
       <c r="B642" s="19"/>
     </row>
     <row r="643" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A643" s="16"/>
-      <c r="B643" s="17"/>
+      <c r="A643" s="20"/>
+      <c r="B643" s="21"/>
     </row>
     <row r="644" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="18"/>
       <c r="B644" s="19"/>
     </row>
     <row r="645" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A645" s="16"/>
-      <c r="B645" s="17"/>
+      <c r="A645" s="20"/>
+      <c r="B645" s="21"/>
     </row>
     <row r="646" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="18"/>
       <c r="B646" s="19"/>
     </row>
     <row r="647" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A647" s="16"/>
-      <c r="B647" s="17"/>
+      <c r="A647" s="20"/>
+      <c r="B647" s="21"/>
     </row>
     <row r="648" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="18"/>
       <c r="B648" s="19"/>
     </row>
     <row r="649" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A649" s="16"/>
-      <c r="B649" s="17"/>
+      <c r="A649" s="20"/>
+      <c r="B649" s="21"/>
     </row>
     <row r="650" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="18"/>
       <c r="B650" s="19"/>
     </row>
     <row r="651" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A651" s="16"/>
-      <c r="B651" s="17"/>
+      <c r="A651" s="20"/>
+      <c r="B651" s="21"/>
     </row>
     <row r="652" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="18"/>
       <c r="B652" s="19"/>
     </row>
     <row r="653" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A653" s="16"/>
-      <c r="B653" s="17"/>
+      <c r="A653" s="20"/>
+      <c r="B653" s="21"/>
     </row>
     <row r="654" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="18"/>
       <c r="B654" s="19"/>
     </row>
     <row r="655" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A655" s="16"/>
-      <c r="B655" s="17"/>
+      <c r="A655" s="20"/>
+      <c r="B655" s="21"/>
     </row>
     <row r="656" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="18"/>
       <c r="B656" s="19"/>
     </row>
     <row r="657" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A657" s="16"/>
-      <c r="B657" s="17"/>
+      <c r="A657" s="20"/>
+      <c r="B657" s="21"/>
     </row>
     <row r="658" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="18"/>
       <c r="B658" s="19"/>
     </row>
     <row r="659" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A659" s="16"/>
-      <c r="B659" s="17"/>
+      <c r="A659" s="20"/>
+      <c r="B659" s="21"/>
     </row>
     <row r="660" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="18"/>
       <c r="B660" s="19"/>
     </row>
     <row r="661" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A661" s="16"/>
-      <c r="B661" s="17"/>
+      <c r="A661" s="20"/>
+      <c r="B661" s="21"/>
     </row>
     <row r="662" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="18"/>
       <c r="B662" s="19"/>
     </row>
     <row r="663" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A663" s="16"/>
-      <c r="B663" s="17"/>
+      <c r="A663" s="20"/>
+      <c r="B663" s="21"/>
     </row>
     <row r="664" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="18"/>
       <c r="B664" s="19"/>
     </row>
     <row r="665" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A665" s="16"/>
-      <c r="B665" s="17"/>
+      <c r="A665" s="20"/>
+      <c r="B665" s="21"/>
     </row>
     <row r="666" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="18"/>
       <c r="B666" s="19"/>
     </row>
     <row r="667" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A667" s="16"/>
-      <c r="B667" s="17"/>
+      <c r="A667" s="20"/>
+      <c r="B667" s="21"/>
     </row>
     <row r="668" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="18"/>
       <c r="B668" s="19"/>
     </row>
     <row r="669" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A669" s="16"/>
-      <c r="B669" s="17"/>
+      <c r="A669" s="20"/>
+      <c r="B669" s="21"/>
     </row>
     <row r="670" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="18"/>
       <c r="B670" s="19"/>
     </row>
     <row r="671" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A671" s="16"/>
-      <c r="B671" s="17"/>
+      <c r="A671" s="20"/>
+      <c r="B671" s="21"/>
     </row>
     <row r="672" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="18"/>
       <c r="B672" s="19"/>
     </row>
     <row r="673" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A673" s="16"/>
-      <c r="B673" s="17"/>
+      <c r="A673" s="20"/>
+      <c r="B673" s="21"/>
     </row>
     <row r="674" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="18"/>
       <c r="B674" s="19"/>
     </row>
     <row r="675" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A675" s="16"/>
-      <c r="B675" s="17"/>
+      <c r="A675" s="20"/>
+      <c r="B675" s="21"/>
     </row>
     <row r="676" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="18"/>
       <c r="B676" s="19"/>
     </row>
     <row r="677" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A677" s="16"/>
-      <c r="B677" s="17"/>
+      <c r="A677" s="20"/>
+      <c r="B677" s="21"/>
     </row>
     <row r="678" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="18"/>
       <c r="B678" s="19"/>
     </row>
     <row r="679" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A679" s="16"/>
-      <c r="B679" s="17"/>
+      <c r="A679" s="20"/>
+      <c r="B679" s="21"/>
     </row>
     <row r="680" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="18"/>
       <c r="B680" s="19"/>
     </row>
     <row r="681" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A681" s="16"/>
-      <c r="B681" s="17"/>
+      <c r="A681" s="20"/>
+      <c r="B681" s="21"/>
     </row>
     <row r="682" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="18"/>
       <c r="B682" s="19"/>
     </row>
     <row r="683" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A683" s="16"/>
-      <c r="B683" s="17"/>
+      <c r="A683" s="20"/>
+      <c r="B683" s="21"/>
     </row>
     <row r="684" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="18"/>
       <c r="B684" s="19"/>
     </row>
     <row r="685" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A685" s="16"/>
-      <c r="B685" s="17"/>
+      <c r="A685" s="20"/>
+      <c r="B685" s="21"/>
     </row>
     <row r="686" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="18"/>
       <c r="B686" s="19"/>
     </row>
     <row r="687" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A687" s="16"/>
-      <c r="B687" s="17"/>
+      <c r="A687" s="20"/>
+      <c r="B687" s="21"/>
     </row>
     <row r="688" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="18"/>
       <c r="B688" s="19"/>
     </row>
     <row r="689" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A689" s="16"/>
-      <c r="B689" s="17"/>
+      <c r="A689" s="20"/>
+      <c r="B689" s="21"/>
     </row>
     <row r="690" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="18"/>
       <c r="B690" s="19"/>
     </row>
     <row r="691" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A691" s="16"/>
-      <c r="B691" s="17"/>
+      <c r="A691" s="20"/>
+      <c r="B691" s="21"/>
     </row>
     <row r="692" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="18"/>
       <c r="B692" s="19"/>
     </row>
     <row r="693" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A693" s="16"/>
-      <c r="B693" s="17"/>
+      <c r="A693" s="20"/>
+      <c r="B693" s="21"/>
     </row>
     <row r="694" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="18"/>
       <c r="B694" s="19"/>
     </row>
     <row r="695" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A695" s="16"/>
-      <c r="B695" s="17"/>
+      <c r="A695" s="20"/>
+      <c r="B695" s="21"/>
     </row>
     <row r="696" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="18"/>
       <c r="B696" s="19"/>
     </row>
     <row r="697" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A697" s="16"/>
-      <c r="B697" s="17"/>
+      <c r="A697" s="20"/>
+      <c r="B697" s="21"/>
     </row>
     <row r="698" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="18"/>
       <c r="B698" s="19"/>
     </row>
     <row r="699" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A699" s="16"/>
-      <c r="B699" s="17"/>
+      <c r="A699" s="20"/>
+      <c r="B699" s="21"/>
     </row>
     <row r="700" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="18"/>
       <c r="B700" s="19"/>
     </row>
     <row r="701" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A701" s="16"/>
-      <c r="B701" s="17"/>
+      <c r="A701" s="20"/>
+      <c r="B701" s="21"/>
     </row>
     <row r="702" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="18"/>
       <c r="B702" s="19"/>
     </row>
     <row r="703" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A703" s="16"/>
-      <c r="B703" s="17"/>
+      <c r="A703" s="20"/>
+      <c r="B703" s="21"/>
     </row>
     <row r="704" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="18"/>
       <c r="B704" s="19"/>
     </row>
     <row r="705" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A705" s="16"/>
-      <c r="B705" s="17"/>
+      <c r="A705" s="20"/>
+      <c r="B705" s="21"/>
     </row>
     <row r="706" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="18"/>
       <c r="B706" s="19"/>
     </row>
     <row r="707" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A707" s="16"/>
-      <c r="B707" s="17"/>
+      <c r="A707" s="20"/>
+      <c r="B707" s="21"/>
     </row>
     <row r="708" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="18"/>
       <c r="B708" s="19"/>
     </row>
     <row r="709" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A709" s="16"/>
-      <c r="B709" s="17"/>
+      <c r="A709" s="20"/>
+      <c r="B709" s="21"/>
     </row>
     <row r="710" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="18"/>
       <c r="B710" s="19"/>
     </row>
     <row r="711" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A711" s="16"/>
-      <c r="B711" s="17"/>
+      <c r="A711" s="20"/>
+      <c r="B711" s="21"/>
     </row>
     <row r="712" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="18"/>
       <c r="B712" s="19"/>
     </row>
     <row r="713" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A713" s="16"/>
-      <c r="B713" s="17"/>
+      <c r="A713" s="20"/>
+      <c r="B713" s="21"/>
     </row>
     <row r="714" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="18"/>
       <c r="B714" s="19"/>
     </row>
     <row r="715" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A715" s="16"/>
-      <c r="B715" s="17"/>
+      <c r="A715" s="20"/>
+      <c r="B715" s="21"/>
     </row>
     <row r="716" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="18"/>
       <c r="B716" s="19"/>
     </row>
     <row r="717" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A717" s="16"/>
-      <c r="B717" s="17"/>
+      <c r="A717" s="20"/>
+      <c r="B717" s="21"/>
     </row>
     <row r="718" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="18"/>
       <c r="B718" s="19"/>
     </row>
     <row r="719" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A719" s="16"/>
-      <c r="B719" s="17"/>
+      <c r="A719" s="20"/>
+      <c r="B719" s="21"/>
     </row>
     <row r="720" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="18"/>
       <c r="B720" s="19"/>
     </row>
     <row r="721" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A721" s="16"/>
-      <c r="B721" s="17"/>
+      <c r="A721" s="20"/>
+      <c r="B721" s="21"/>
     </row>
     <row r="722" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="18"/>
       <c r="B722" s="19"/>
     </row>
     <row r="723" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A723" s="16"/>
-      <c r="B723" s="17"/>
+      <c r="A723" s="20"/>
+      <c r="B723" s="21"/>
     </row>
     <row r="724" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="18"/>
       <c r="B724" s="19"/>
     </row>
     <row r="725" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A725" s="16"/>
-      <c r="B725" s="17"/>
+      <c r="A725" s="20"/>
+      <c r="B725" s="21"/>
     </row>
     <row r="726" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="18"/>
       <c r="B726" s="19"/>
     </row>
     <row r="727" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A727" s="16"/>
-      <c r="B727" s="17"/>
+      <c r="A727" s="20"/>
+      <c r="B727" s="21"/>
     </row>
     <row r="728" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="18"/>
       <c r="B728" s="19"/>
     </row>
     <row r="729" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A729" s="16"/>
-      <c r="B729" s="17"/>
+      <c r="A729" s="20"/>
+      <c r="B729" s="21"/>
     </row>
     <row r="730" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="18"/>
       <c r="B730" s="19"/>
     </row>
     <row r="731" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A731" s="16"/>
-      <c r="B731" s="17"/>
+      <c r="A731" s="20"/>
+      <c r="B731" s="21"/>
     </row>
     <row r="732" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="18"/>
       <c r="B732" s="19"/>
     </row>
     <row r="733" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A733" s="16"/>
-      <c r="B733" s="17"/>
+      <c r="A733" s="20"/>
+      <c r="B733" s="21"/>
     </row>
     <row r="734" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="18"/>
       <c r="B734" s="19"/>
     </row>
     <row r="735" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A735" s="16"/>
-      <c r="B735" s="17"/>
+      <c r="A735" s="20"/>
+      <c r="B735" s="21"/>
     </row>
     <row r="736" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="18"/>
       <c r="B736" s="19"/>
     </row>
     <row r="737" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A737" s="16"/>
-      <c r="B737" s="17"/>
+      <c r="A737" s="20"/>
+      <c r="B737" s="21"/>
     </row>
     <row r="738" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="18"/>
       <c r="B738" s="19"/>
     </row>
     <row r="739" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A739" s="16"/>
-      <c r="B739" s="17"/>
+      <c r="A739" s="20"/>
+      <c r="B739" s="21"/>
     </row>
     <row r="740" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="18"/>
       <c r="B740" s="19"/>
     </row>
     <row r="741" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A741" s="16"/>
-      <c r="B741" s="17"/>
+      <c r="A741" s="20"/>
+      <c r="B741" s="21"/>
     </row>
     <row r="742" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="18"/>
       <c r="B742" s="19"/>
     </row>
     <row r="743" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A743" s="16"/>
-      <c r="B743" s="17"/>
+      <c r="A743" s="20"/>
+      <c r="B743" s="21"/>
     </row>
     <row r="744" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="18"/>
       <c r="B744" s="19"/>
     </row>
     <row r="745" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A745" s="16"/>
-      <c r="B745" s="17"/>
+      <c r="A745" s="20"/>
+      <c r="B745" s="21"/>
     </row>
     <row r="746" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="18"/>
       <c r="B746" s="19"/>
     </row>
     <row r="747" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A747" s="16"/>
-      <c r="B747" s="17"/>
+      <c r="A747" s="20"/>
+      <c r="B747" s="21"/>
     </row>
     <row r="748" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="18"/>
       <c r="B748" s="19"/>
     </row>
     <row r="749" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A749" s="16"/>
-      <c r="B749" s="17"/>
+      <c r="A749" s="20"/>
+      <c r="B749" s="21"/>
     </row>
     <row r="750" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="18"/>
       <c r="B750" s="19"/>
     </row>
     <row r="751" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A751" s="16"/>
-      <c r="B751" s="17"/>
+      <c r="A751" s="20"/>
+      <c r="B751" s="21"/>
     </row>
     <row r="752" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="18"/>
       <c r="B752" s="19"/>
     </row>
     <row r="753" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A753" s="16"/>
-      <c r="B753" s="17"/>
+      <c r="A753" s="20"/>
+      <c r="B753" s="21"/>
     </row>
     <row r="754" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="18"/>
       <c r="B754" s="19"/>
     </row>
     <row r="755" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A755" s="16"/>
-      <c r="B755" s="17"/>
+      <c r="A755" s="20"/>
+      <c r="B755" s="21"/>
     </row>
     <row r="756" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="18"/>
       <c r="B756" s="19"/>
     </row>
     <row r="757" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A757" s="16"/>
-      <c r="B757" s="17"/>
+      <c r="A757" s="20"/>
+      <c r="B757" s="21"/>
     </row>
     <row r="758" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="18"/>
       <c r="B758" s="19"/>
     </row>
     <row r="759" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A759" s="16"/>
-      <c r="B759" s="17"/>
+      <c r="A759" s="20"/>
+      <c r="B759" s="21"/>
     </row>
     <row r="760" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="18"/>
       <c r="B760" s="19"/>
     </row>
     <row r="761" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A761" s="16"/>
-      <c r="B761" s="17"/>
+      <c r="A761" s="20"/>
+      <c r="B761" s="21"/>
     </row>
     <row r="762" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="18"/>
       <c r="B762" s="19"/>
     </row>
     <row r="763" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A763" s="16"/>
-      <c r="B763" s="17"/>
+      <c r="A763" s="20"/>
+      <c r="B763" s="21"/>
     </row>
     <row r="764" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="18"/>
       <c r="B764" s="19"/>
     </row>
     <row r="765" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A765" s="16"/>
-      <c r="B765" s="17"/>
+      <c r="A765" s="20"/>
+      <c r="B765" s="21"/>
     </row>
     <row r="766" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="18"/>
       <c r="B766" s="19"/>
     </row>
     <row r="767" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A767" s="16"/>
-      <c r="B767" s="17"/>
+      <c r="A767" s="20"/>
+      <c r="B767" s="21"/>
     </row>
     <row r="768" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="18"/>
       <c r="B768" s="19"/>
     </row>
     <row r="769" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A769" s="16"/>
-      <c r="B769" s="17"/>
+      <c r="A769" s="20"/>
+      <c r="B769" s="21"/>
     </row>
     <row r="770" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="18"/>
       <c r="B770" s="19"/>
     </row>
     <row r="771" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A771" s="16"/>
-      <c r="B771" s="17"/>
+      <c r="A771" s="20"/>
+      <c r="B771" s="21"/>
     </row>
     <row r="772" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="18"/>
       <c r="B772" s="19"/>
     </row>
     <row r="773" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A773" s="16"/>
-      <c r="B773" s="17"/>
+      <c r="A773" s="20"/>
+      <c r="B773" s="21"/>
     </row>
     <row r="774" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="18"/>
       <c r="B774" s="19"/>
     </row>
     <row r="775" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A775" s="16"/>
-      <c r="B775" s="17"/>
+      <c r="A775" s="20"/>
+      <c r="B775" s="21"/>
     </row>
     <row r="776" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="18"/>
       <c r="B776" s="19"/>
     </row>
     <row r="777" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A777" s="16"/>
-      <c r="B777" s="17"/>
+      <c r="A777" s="20"/>
+      <c r="B777" s="21"/>
     </row>
     <row r="778" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="18"/>
       <c r="B778" s="19"/>
     </row>
     <row r="779" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A779" s="16"/>
-      <c r="B779" s="17"/>
+      <c r="A779" s="20"/>
+      <c r="B779" s="21"/>
     </row>
     <row r="780" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="18"/>
       <c r="B780" s="19"/>
     </row>
     <row r="781" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A781" s="16"/>
-      <c r="B781" s="17"/>
+      <c r="A781" s="20"/>
+      <c r="B781" s="21"/>
     </row>
     <row r="782" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="18"/>
       <c r="B782" s="19"/>
     </row>
     <row r="783" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A783" s="16"/>
-      <c r="B783" s="17"/>
+      <c r="A783" s="20"/>
+      <c r="B783" s="21"/>
     </row>
     <row r="784" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="18"/>
       <c r="B784" s="19"/>
     </row>
     <row r="785" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A785" s="16"/>
-      <c r="B785" s="17"/>
+      <c r="A785" s="20"/>
+      <c r="B785" s="21"/>
     </row>
     <row r="786" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="18"/>
       <c r="B786" s="19"/>
     </row>
     <row r="787" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A787" s="16"/>
-      <c r="B787" s="17"/>
+      <c r="A787" s="20"/>
+      <c r="B787" s="21"/>
     </row>
     <row r="788" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="18"/>
       <c r="B788" s="19"/>
     </row>
     <row r="789" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A789" s="16"/>
-      <c r="B789" s="17"/>
+      <c r="A789" s="20"/>
+      <c r="B789" s="21"/>
     </row>
     <row r="790" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="18"/>
       <c r="B790" s="19"/>
     </row>
     <row r="791" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A791" s="16"/>
-      <c r="B791" s="17"/>
+      <c r="A791" s="20"/>
+      <c r="B791" s="21"/>
     </row>
     <row r="792" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="18"/>
       <c r="B792" s="19"/>
     </row>
     <row r="793" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A793" s="16"/>
-      <c r="B793" s="17"/>
+      <c r="A793" s="20"/>
+      <c r="B793" s="21"/>
     </row>
     <row r="794" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="18"/>
       <c r="B794" s="19"/>
     </row>
     <row r="795" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A795" s="16"/>
-      <c r="B795" s="17"/>
+      <c r="A795" s="20"/>
+      <c r="B795" s="21"/>
     </row>
     <row r="796" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="18"/>
       <c r="B796" s="19"/>
     </row>
     <row r="797" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A797" s="16"/>
-      <c r="B797" s="17"/>
+      <c r="A797" s="20"/>
+      <c r="B797" s="21"/>
     </row>
     <row r="798" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="18"/>
       <c r="B798" s="19"/>
     </row>
     <row r="799" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A799" s="16"/>
-      <c r="B799" s="17"/>
+      <c r="A799" s="20"/>
+      <c r="B799" s="21"/>
     </row>
     <row r="800" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="18"/>
       <c r="B800" s="19"/>
     </row>
     <row r="801" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A801" s="16"/>
-      <c r="B801" s="17"/>
+      <c r="A801" s="20"/>
+      <c r="B801" s="21"/>
     </row>
     <row r="802" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="18"/>
       <c r="B802" s="19"/>
     </row>
     <row r="803" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A803" s="16"/>
-      <c r="B803" s="17"/>
-    </row>
-    <row r="804" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A804" s="18"/>
-      <c r="B804" s="19"/>
-    </row>
-    <row r="805" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A805" s="16"/>
-      <c r="B805" s="17"/>
-    </row>
-    <row r="806" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A806" s="18"/>
-      <c r="B806" s="19"/>
-    </row>
-    <row r="807" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A807" s="16"/>
-      <c r="B807" s="17"/>
-    </row>
-    <row r="808" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A808" s="18"/>
-      <c r="B808" s="19"/>
-    </row>
-    <row r="809" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A809" s="16"/>
-      <c r="B809" s="17"/>
-    </row>
-    <row r="810" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A810" s="18"/>
-      <c r="B810" s="19"/>
-    </row>
-    <row r="811" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A811" s="16"/>
-      <c r="B811" s="17"/>
-    </row>
-    <row r="812" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A812" s="18"/>
-      <c r="B812" s="19"/>
-    </row>
-    <row r="813" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A813" s="16"/>
-      <c r="B813" s="17"/>
-    </row>
-    <row r="814" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A814" s="18"/>
-      <c r="B814" s="19"/>
-    </row>
-    <row r="815" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A815" s="16"/>
-      <c r="B815" s="17"/>
-    </row>
-    <row r="816" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A816" s="18"/>
-      <c r="B816" s="19"/>
-    </row>
-    <row r="817" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A817" s="16"/>
-      <c r="B817" s="17"/>
-    </row>
-    <row r="818" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A818" s="18"/>
-      <c r="B818" s="19"/>
-    </row>
-    <row r="819" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A819" s="16"/>
-      <c r="B819" s="17"/>
-    </row>
-    <row r="820" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A820" s="18"/>
-      <c r="B820" s="19"/>
-    </row>
-    <row r="821" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A821" s="16"/>
-      <c r="B821" s="17"/>
-    </row>
-    <row r="822" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A822" s="18"/>
-      <c r="B822" s="19"/>
-    </row>
-    <row r="823" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A823" s="16"/>
-      <c r="B823" s="17"/>
-    </row>
-    <row r="824" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A824" s="18"/>
-      <c r="B824" s="19"/>
-    </row>
-    <row r="825" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A825" s="16"/>
-      <c r="B825" s="17"/>
-    </row>
-    <row r="826" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A826" s="18"/>
-      <c r="B826" s="19"/>
-    </row>
-    <row r="827" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A827" s="16"/>
-      <c r="B827" s="17"/>
-    </row>
-    <row r="828" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A828" s="18"/>
-      <c r="B828" s="19"/>
-    </row>
-    <row r="829" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A829" s="16"/>
-      <c r="B829" s="17"/>
-    </row>
-    <row r="830" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A830" s="18"/>
-      <c r="B830" s="19"/>
-    </row>
-    <row r="831" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A831" s="16"/>
-      <c r="B831" s="17"/>
-    </row>
-    <row r="832" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A832" s="18"/>
-      <c r="B832" s="19"/>
-    </row>
-    <row r="833" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A833" s="16"/>
-      <c r="B833" s="17"/>
-    </row>
-    <row r="834" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A834" s="18"/>
-      <c r="B834" s="19"/>
-    </row>
-    <row r="835" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A835" s="16"/>
-      <c r="B835" s="17"/>
-    </row>
-    <row r="836" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A836" s="18"/>
-      <c r="B836" s="19"/>
-    </row>
-    <row r="837" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A837" s="16"/>
-      <c r="B837" s="17"/>
-    </row>
-    <row r="838" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A838" s="18"/>
-      <c r="B838" s="19"/>
-    </row>
-    <row r="839" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A839" s="16"/>
-      <c r="B839" s="17"/>
-    </row>
-    <row r="840" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A840" s="18"/>
-      <c r="B840" s="19"/>
-    </row>
-    <row r="841" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A841" s="16"/>
-      <c r="B841" s="17"/>
-    </row>
-    <row r="842" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A842" s="18"/>
-      <c r="B842" s="19"/>
-    </row>
-    <row r="843" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A843" s="16"/>
-      <c r="B843" s="17"/>
-    </row>
-    <row r="844" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A844" s="18"/>
-      <c r="B844" s="19"/>
-    </row>
-    <row r="845" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A845" s="16"/>
-      <c r="B845" s="17"/>
-    </row>
-    <row r="846" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A846" s="18"/>
-      <c r="B846" s="19"/>
-    </row>
-    <row r="847" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A847" s="16"/>
-      <c r="B847" s="17"/>
-    </row>
-    <row r="848" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A848" s="18"/>
-      <c r="B848" s="19"/>
-    </row>
-    <row r="849" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A849" s="16"/>
-      <c r="B849" s="17"/>
-    </row>
-    <row r="850" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A850" s="18"/>
-      <c r="B850" s="19"/>
-    </row>
-    <row r="851" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A851" s="16"/>
-      <c r="B851" s="17"/>
-    </row>
-    <row r="852" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A852" s="18"/>
-      <c r="B852" s="19"/>
-    </row>
-    <row r="853" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A853" s="16"/>
-      <c r="B853" s="17"/>
-    </row>
-    <row r="854" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A854" s="18"/>
-      <c r="B854" s="19"/>
-    </row>
-    <row r="855" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A855" s="16"/>
-      <c r="B855" s="17"/>
-    </row>
-    <row r="856" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A856" s="18"/>
-      <c r="B856" s="19"/>
-    </row>
-    <row r="857" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A857" s="16"/>
-      <c r="B857" s="17"/>
-    </row>
-    <row r="858" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A858" s="18"/>
-      <c r="B858" s="19"/>
-    </row>
-    <row r="859" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A859" s="16"/>
-      <c r="B859" s="17"/>
-    </row>
-    <row r="860" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A860" s="18"/>
-      <c r="B860" s="19"/>
-    </row>
-    <row r="861" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A861" s="16"/>
-      <c r="B861" s="17"/>
-    </row>
-    <row r="862" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A862" s="18"/>
-      <c r="B862" s="19"/>
-    </row>
-    <row r="863" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A863" s="16"/>
-      <c r="B863" s="17"/>
-    </row>
-    <row r="864" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A864" s="18"/>
-      <c r="B864" s="19"/>
-    </row>
-    <row r="865" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A865" s="16"/>
-      <c r="B865" s="17"/>
-    </row>
-    <row r="866" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A866" s="18"/>
-      <c r="B866" s="19"/>
-    </row>
-    <row r="867" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A867" s="16"/>
-      <c r="B867" s="17"/>
-    </row>
-    <row r="868" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A868" s="18"/>
-      <c r="B868" s="19"/>
-    </row>
-    <row r="869" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A869" s="16"/>
-      <c r="B869" s="17"/>
-    </row>
-    <row r="870" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A870" s="18"/>
-      <c r="B870" s="19"/>
-    </row>
-    <row r="871" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A871" s="16"/>
-      <c r="B871" s="17"/>
-    </row>
-    <row r="872" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A872" s="18"/>
-      <c r="B872" s="19"/>
-    </row>
-    <row r="873" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A873" s="16"/>
-      <c r="B873" s="17"/>
-    </row>
-    <row r="874" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A874" s="18"/>
-      <c r="B874" s="19"/>
-    </row>
-    <row r="875" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A875" s="16"/>
-      <c r="B875" s="17"/>
-    </row>
-    <row r="876" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A876" s="18"/>
-      <c r="B876" s="19"/>
-    </row>
-    <row r="877" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A877" s="16"/>
-      <c r="B877" s="17"/>
-    </row>
-    <row r="878" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A878" s="18"/>
-      <c r="B878" s="19"/>
-    </row>
-    <row r="879" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A879" s="16"/>
-      <c r="B879" s="17"/>
-    </row>
-    <row r="880" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A880" s="18"/>
-      <c r="B880" s="19"/>
-    </row>
-    <row r="881" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A881" s="16"/>
-      <c r="B881" s="17"/>
-    </row>
-    <row r="882" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A882" s="18"/>
-      <c r="B882" s="19"/>
-    </row>
-    <row r="883" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A883" s="16"/>
-      <c r="B883" s="17"/>
-    </row>
-    <row r="884" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A884" s="18"/>
-      <c r="B884" s="19"/>
-    </row>
-    <row r="885" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A885" s="16"/>
-      <c r="B885" s="17"/>
-    </row>
-    <row r="886" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A886" s="18"/>
-      <c r="B886" s="19"/>
-    </row>
-    <row r="887" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A887" s="16"/>
-      <c r="B887" s="17"/>
-    </row>
-    <row r="888" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A888" s="18"/>
-      <c r="B888" s="19"/>
-    </row>
-    <row r="889" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A889" s="16"/>
-      <c r="B889" s="17"/>
-    </row>
-    <row r="890" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A890" s="18"/>
-      <c r="B890" s="19"/>
-    </row>
-    <row r="891" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A891" s="16"/>
-      <c r="B891" s="17"/>
-    </row>
-    <row r="892" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A892" s="18"/>
-      <c r="B892" s="19"/>
-    </row>
-    <row r="893" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A893" s="16"/>
-      <c r="B893" s="17"/>
-    </row>
-    <row r="894" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A894" s="18"/>
-      <c r="B894" s="19"/>
-    </row>
-    <row r="895" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A895" s="16"/>
-      <c r="B895" s="17"/>
-    </row>
-    <row r="896" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A896" s="18"/>
-      <c r="B896" s="19"/>
-    </row>
-    <row r="897" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A897" s="16"/>
-      <c r="B897" s="17"/>
-    </row>
-    <row r="898" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A898" s="18"/>
-      <c r="B898" s="19"/>
-    </row>
-    <row r="899" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A899" s="16"/>
-      <c r="B899" s="17"/>
-    </row>
-    <row r="900" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A900" s="18"/>
-      <c r="B900" s="19"/>
-    </row>
-    <row r="901" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A901" s="16"/>
-      <c r="B901" s="17"/>
-    </row>
-    <row r="902" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A902" s="18"/>
-      <c r="B902" s="19"/>
-    </row>
-    <row r="903" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A903" s="16"/>
-      <c r="B903" s="17"/>
-    </row>
-    <row r="904" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A904" s="18"/>
-      <c r="B904" s="19"/>
-    </row>
-    <row r="905" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A905" s="16"/>
-      <c r="B905" s="17"/>
-    </row>
-    <row r="906" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A906" s="18"/>
-      <c r="B906" s="19"/>
-    </row>
-    <row r="907" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A907" s="16"/>
-      <c r="B907" s="17"/>
-    </row>
-    <row r="908" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A908" s="18"/>
-      <c r="B908" s="19"/>
-    </row>
-    <row r="909" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A909" s="16"/>
-      <c r="B909" s="17"/>
-    </row>
-    <row r="910" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A910" s="18"/>
-      <c r="B910" s="19"/>
-    </row>
-    <row r="911" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A911" s="16"/>
-      <c r="B911" s="17"/>
-    </row>
-    <row r="912" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A912" s="18"/>
-      <c r="B912" s="19"/>
-    </row>
-    <row r="913" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A913" s="16"/>
-      <c r="B913" s="17"/>
-    </row>
-    <row r="914" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A914" s="18"/>
-      <c r="B914" s="19"/>
-    </row>
-    <row r="915" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A915" s="16"/>
-      <c r="B915" s="17"/>
-    </row>
-    <row r="916" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A916" s="18"/>
-      <c r="B916" s="19"/>
-    </row>
-    <row r="917" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A917" s="16"/>
-      <c r="B917" s="17"/>
-    </row>
-    <row r="918" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A918" s="18"/>
-      <c r="B918" s="19"/>
-    </row>
-    <row r="919" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A919" s="16"/>
-      <c r="B919" s="17"/>
-    </row>
-    <row r="920" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A920" s="18"/>
-      <c r="B920" s="19"/>
-    </row>
-    <row r="921" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A921" s="16"/>
-      <c r="B921" s="17"/>
-    </row>
-    <row r="922" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A922" s="18"/>
-      <c r="B922" s="19"/>
-    </row>
-    <row r="923" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A923" s="16"/>
-      <c r="B923" s="17"/>
-    </row>
-    <row r="924" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A924" s="18"/>
-      <c r="B924" s="19"/>
-    </row>
-    <row r="925" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A925" s="16"/>
-      <c r="B925" s="17"/>
-    </row>
-    <row r="926" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A926" s="18"/>
-      <c r="B926" s="19"/>
-    </row>
-    <row r="927" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A927" s="16"/>
-      <c r="B927" s="17"/>
-    </row>
-    <row r="928" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A928" s="18"/>
-      <c r="B928" s="19"/>
-    </row>
-    <row r="929" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A929" s="16"/>
-      <c r="B929" s="17"/>
-    </row>
-    <row r="930" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A930" s="18"/>
-      <c r="B930" s="19"/>
-    </row>
-    <row r="931" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A931" s="16"/>
-      <c r="B931" s="17"/>
-    </row>
-    <row r="932" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A932" s="18"/>
-      <c r="B932" s="19"/>
-    </row>
-    <row r="933" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A933" s="16"/>
-      <c r="B933" s="17"/>
-    </row>
-    <row r="934" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A934" s="18"/>
-      <c r="B934" s="19"/>
-    </row>
-    <row r="935" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A935" s="16"/>
-      <c r="B935" s="17"/>
-    </row>
-    <row r="936" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A936" s="18"/>
-      <c r="B936" s="19"/>
-    </row>
-    <row r="937" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A937" s="16"/>
-      <c r="B937" s="17"/>
-    </row>
-    <row r="938" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A938" s="18"/>
-      <c r="B938" s="19"/>
-    </row>
-    <row r="939" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A939" s="16"/>
-      <c r="B939" s="17"/>
-    </row>
-    <row r="940" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A940" s="18"/>
-      <c r="B940" s="19"/>
-    </row>
-    <row r="941" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A941" s="16"/>
-      <c r="B941" s="17"/>
-    </row>
-    <row r="942" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A942" s="18"/>
-      <c r="B942" s="19"/>
-    </row>
-    <row r="943" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A943" s="16"/>
-      <c r="B943" s="17"/>
-    </row>
-    <row r="944" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A944" s="18"/>
-      <c r="B944" s="19"/>
-    </row>
-    <row r="945" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A945" s="16"/>
-      <c r="B945" s="17"/>
-    </row>
-    <row r="946" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A946" s="18"/>
-      <c r="B946" s="19"/>
-    </row>
-    <row r="947" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A947" s="16"/>
-      <c r="B947" s="17"/>
-    </row>
-    <row r="948" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A948" s="18"/>
-      <c r="B948" s="19"/>
-    </row>
-    <row r="949" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A949" s="16"/>
-      <c r="B949" s="17"/>
-    </row>
-    <row r="950" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A950" s="18"/>
-      <c r="B950" s="19"/>
-    </row>
-    <row r="951" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A951" s="16"/>
-      <c r="B951" s="17"/>
-    </row>
-    <row r="952" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A952" s="18"/>
-      <c r="B952" s="19"/>
-    </row>
-    <row r="953" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A953" s="16"/>
-      <c r="B953" s="17"/>
-    </row>
-    <row r="954" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A954" s="18"/>
-      <c r="B954" s="19"/>
-    </row>
-    <row r="955" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A955" s="16"/>
-      <c r="B955" s="17"/>
-    </row>
-    <row r="956" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A956" s="18"/>
-      <c r="B956" s="19"/>
-    </row>
-    <row r="957" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A957" s="16"/>
-      <c r="B957" s="17"/>
-    </row>
-    <row r="958" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A958" s="18"/>
-      <c r="B958" s="19"/>
-    </row>
-    <row r="959" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A959" s="16"/>
-      <c r="B959" s="17"/>
-    </row>
-    <row r="960" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A960" s="18"/>
-      <c r="B960" s="19"/>
-    </row>
-    <row r="961" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A961" s="16"/>
-      <c r="B961" s="17"/>
-    </row>
-    <row r="962" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A962" s="18"/>
-      <c r="B962" s="19"/>
-    </row>
-    <row r="963" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A963" s="16"/>
-      <c r="B963" s="17"/>
-    </row>
-    <row r="964" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A964" s="18"/>
-      <c r="B964" s="19"/>
-    </row>
-    <row r="965" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A965" s="16"/>
-      <c r="B965" s="17"/>
-    </row>
-    <row r="966" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A966" s="18"/>
-      <c r="B966" s="19"/>
-    </row>
-    <row r="967" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A967" s="16"/>
-      <c r="B967" s="17"/>
-    </row>
-    <row r="968" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A968" s="18"/>
-      <c r="B968" s="19"/>
-    </row>
-    <row r="969" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A969" s="16"/>
-      <c r="B969" s="17"/>
-    </row>
-    <row r="970" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A970" s="18"/>
-      <c r="B970" s="19"/>
-    </row>
-    <row r="971" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A971" s="16"/>
-      <c r="B971" s="17"/>
-    </row>
-    <row r="972" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A972" s="18"/>
-      <c r="B972" s="19"/>
-    </row>
-    <row r="973" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A973" s="16"/>
-      <c r="B973" s="17"/>
-    </row>
-    <row r="974" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A974" s="18"/>
-      <c r="B974" s="19"/>
-    </row>
-    <row r="975" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A975" s="16"/>
-      <c r="B975" s="17"/>
-    </row>
-    <row r="976" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A976" s="18"/>
-      <c r="B976" s="19"/>
-    </row>
-    <row r="977" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A977" s="16"/>
-      <c r="B977" s="17"/>
-    </row>
-    <row r="978" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A978" s="18"/>
-      <c r="B978" s="19"/>
-    </row>
-    <row r="979" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A979" s="16"/>
-      <c r="B979" s="17"/>
-    </row>
-    <row r="980" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A980" s="18"/>
-      <c r="B980" s="19"/>
-    </row>
-    <row r="981" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A981" s="16"/>
-      <c r="B981" s="17"/>
-    </row>
-    <row r="982" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A982" s="18"/>
-      <c r="B982" s="19"/>
-    </row>
-    <row r="983" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A983" s="16"/>
-      <c r="B983" s="17"/>
-    </row>
-    <row r="984" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A984" s="18"/>
-      <c r="B984" s="19"/>
-    </row>
-    <row r="985" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A985" s="16"/>
-      <c r="B985" s="17"/>
-    </row>
-    <row r="986" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A986" s="18"/>
-      <c r="B986" s="19"/>
-    </row>
-    <row r="987" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A987" s="16"/>
-      <c r="B987" s="17"/>
-    </row>
-    <row r="988" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A988" s="18"/>
-      <c r="B988" s="19"/>
-    </row>
-    <row r="989" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A989" s="16"/>
-      <c r="B989" s="17"/>
-    </row>
-    <row r="990" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A990" s="18"/>
-      <c r="B990" s="19"/>
-    </row>
-    <row r="991" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A991" s="16"/>
-      <c r="B991" s="17"/>
-    </row>
-    <row r="992" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A992" s="18"/>
-      <c r="B992" s="19"/>
-    </row>
-    <row r="993" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A993" s="16"/>
-      <c r="B993" s="17"/>
-    </row>
-    <row r="994" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A994" s="18"/>
-      <c r="B994" s="19"/>
-    </row>
-    <row r="995" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A995" s="16"/>
-      <c r="B995" s="17"/>
-    </row>
-    <row r="996" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A996" s="20"/>
-      <c r="B996" s="21"/>
-    </row>
+      <c r="A803" s="20"/>
+      <c r="B803" s="21"/>
+    </row>
+    <row r="804" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
